--- a/BriefTasks 2013-07-20.xlsx
+++ b/BriefTasks 2013-07-20.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="132">
   <si>
     <t>Section</t>
   </si>
@@ -540,8 +540,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -812,7 +820,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -890,6 +898,10 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -967,6 +979,10 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1298,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1332,7 +1348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1353,7 +1369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1374,7 +1390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1395,7 +1411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" ht="30">
+    <row r="5" spans="1:7" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1412,7 +1428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1">
+    <row r="6" spans="1:7" s="16" customFormat="1" hidden="1">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1471,7 +1487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -1492,7 +1508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1513,7 +1529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1534,7 +1550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="8">
         <v>7</v>
       </c>
@@ -1555,7 +1571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -1574,7 +1590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="8">
         <v>3</v>
       </c>
@@ -1593,7 +1609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -1612,7 +1628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -1631,7 +1647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -1650,7 +1666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="8">
         <v>4</v>
       </c>
@@ -1669,7 +1685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -1690,7 +1706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="8" t="s">
         <v>122</v>
       </c>
@@ -1711,7 +1727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -1730,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="8">
         <v>4</v>
       </c>
@@ -1749,7 +1765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1789,7 +1805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="16" customFormat="1">
+    <row r="25" spans="1:7" s="16" customFormat="1" hidden="1">
       <c r="A25" s="8">
         <v>4</v>
       </c>
@@ -1810,7 +1826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -1831,7 +1847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -1850,7 +1866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="8">
         <v>7</v>
       </c>
@@ -1888,7 +1904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="17">
         <v>3</v>
       </c>
@@ -1909,7 +1925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="17">
         <v>4</v>
       </c>
@@ -1930,7 +1946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="17">
         <v>4</v>
       </c>
@@ -1949,7 +1965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="17" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +1984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="17">
         <v>3</v>
       </c>
@@ -1989,7 +2005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="17">
         <v>11</v>
       </c>
@@ -2006,7 +2022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="17">
         <v>7</v>
       </c>
@@ -2027,7 +2043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="17">
         <v>2</v>
       </c>
@@ -2048,7 +2064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="17" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="17">
         <v>1</v>
       </c>
@@ -2086,7 +2102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="17">
         <v>7</v>
       </c>
@@ -2101,7 +2117,7 @@
       <c r="F40" s="20"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="17">
         <v>7</v>
       </c>
@@ -2118,7 +2134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="30" hidden="1">
       <c r="A42" s="17" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +2149,7 @@
       <c r="F42" s="20"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="17">
         <v>3</v>
       </c>
@@ -2164,7 +2180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" s="17" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +2201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="17" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +2222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="17">
         <v>3</v>
       </c>
@@ -2227,7 +2243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="17">
         <v>3</v>
       </c>
@@ -2264,7 +2280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="17">
         <v>3</v>
       </c>
@@ -2296,7 +2312,7 @@
         <v>41449</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="17">
         <v>5</v>
       </c>
@@ -2337,7 +2353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="17">
         <v>3</v>
       </c>
@@ -2358,7 +2374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="17">
         <v>7</v>
       </c>
@@ -2379,7 +2395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="17">
         <v>5</v>
       </c>
@@ -2400,7 +2416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="17">
         <v>5</v>
       </c>
@@ -2428,6 +2444,9 @@
       <c r="B58" s="28" t="s">
         <v>88</v>
       </c>
+      <c r="C58" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D58" s="3">
         <v>41449</v>
       </c>
@@ -2442,6 +2461,9 @@
       <c r="B59" s="28" t="s">
         <v>89</v>
       </c>
+      <c r="C59" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D59" s="3">
         <v>41449</v>
       </c>
@@ -2456,6 +2478,9 @@
       <c r="B60" s="28" t="s">
         <v>90</v>
       </c>
+      <c r="C60" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D60" s="3">
         <v>41449</v>
       </c>
@@ -2463,7 +2488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="17">
         <v>6</v>
       </c>
@@ -2484,7 +2509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" s="17" t="s">
         <v>7</v>
       </c>
@@ -2505,7 +2530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="17">
         <v>6</v>
       </c>
@@ -2546,7 +2571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" s="17">
         <v>2</v>
       </c>
@@ -2567,43 +2592,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="2">
+    <row r="66" spans="1:7" s="20" customFormat="1" hidden="1">
+      <c r="A66" s="17">
         <v>5</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="19">
         <v>41455</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="19">
         <v>41464</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="2">
+      <c r="G66" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="20" customFormat="1" hidden="1">
+      <c r="A67" s="17">
         <v>5</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="19">
         <v>41457</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="19">
         <v>41464</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2638,7 +2663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="17" t="s">
         <v>7</v>
       </c>
@@ -2715,7 +2740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="8" t="s">
         <v>7</v>
       </c>
@@ -2736,7 +2761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30">
+    <row r="75" spans="1:7" ht="30" hidden="1">
       <c r="A75" s="8">
         <v>3</v>
       </c>
@@ -2755,7 +2780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="8" t="s">
         <v>7</v>
       </c>
@@ -2776,7 +2801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="8"/>
       <c r="B77" s="24"/>
       <c r="C77" s="21"/>
@@ -2785,7 +2810,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" s="17" t="s">
         <v>7</v>
       </c>
@@ -2806,7 +2831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" s="17">
         <v>7</v>
       </c>
@@ -2847,7 +2872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" s="17" t="s">
         <v>7</v>
       </c>
